--- a/SystemsTesting.xlsx
+++ b/SystemsTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\source\repos\SQTAss2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E4B002-A6C3-4BCE-91A1-395C3BEAAEBE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17DC37E-07D6-4698-839B-020AE718D27E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>&lt;18 30&lt;</t>
+  </si>
+  <si>
+    <t>Expected Premuim</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Cyclomatic complexity=5</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +625,104 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
